--- a/HWK1/HWK_1_try/src/Hwk1_data_analysis.xlsx
+++ b/HWK1/HWK_1_try/src/Hwk1_data_analysis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="23">
   <si>
     <t xml:space="preserve">S 1               run:</t>
   </si>
@@ -55,6 +55,9 @@
     <t xml:space="preserve">S5</t>
   </si>
   <si>
+    <t xml:space="preserve">S6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mean</t>
   </si>
   <si>
@@ -64,7 +67,13 @@
     <t xml:space="preserve">Std.Dev</t>
   </si>
   <si>
+    <t xml:space="preserve">Time elapse(s)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Std. Dev.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num of sols</t>
   </si>
   <si>
     <t xml:space="preserve">S 2               run:</t>
@@ -77,6 +86,9 @@
   </si>
   <si>
     <t xml:space="preserve">S 5               run:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S 6               run:</t>
   </si>
 </sst>
 </file>
@@ -139,12 +151,61 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -173,7 +234,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -194,8 +255,56 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -270,7 +379,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -357,10 +466,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$K$25:$O$25</c:f>
+                <c:f>Sheet1!$K$25:$P$25</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
+                  <c:ptCount val="6"/>
                   <c:pt idx="0">
                     <c:v>410953.341935887</c:v>
                   </c:pt>
@@ -376,15 +485,18 @@
                   <c:pt idx="4">
                     <c:v>364133.532746583</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>218775.974429756</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$K$25:$O$25</c:f>
+                <c:f>Sheet1!$K$25:$P$25</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
+                  <c:ptCount val="6"/>
                   <c:pt idx="0">
                     <c:v>410953.341935887</c:v>
                   </c:pt>
@@ -400,15 +512,18 @@
                   <c:pt idx="4">
                     <c:v>364133.532746583</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>218775.974429756</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$22:$O$22</c:f>
+              <c:f>Sheet1!$K$22:$P$22</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>S1</c:v>
                 </c:pt>
@@ -424,15 +539,18 @@
                 <c:pt idx="4">
                   <c:v>S5</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>S6</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$23:$O$23</c:f>
+              <c:f>Sheet1!$K$23:$P$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1465194.2951835</c:v>
                 </c:pt>
@@ -447,6 +565,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1224758.94468873</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>670362.930617971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -487,9 +608,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$22:$O$22</c:f>
+              <c:f>Sheet1!$K$22:$P$22</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>S1</c:v>
                 </c:pt>
@@ -505,15 +626,18 @@
                 <c:pt idx="4">
                   <c:v>S5</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>S6</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$24:$O$24</c:f>
+              <c:f>Sheet1!$K$24:$P$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1535404.17218394</c:v>
                 </c:pt>
@@ -529,17 +653,20 @@
                 <c:pt idx="4">
                   <c:v>1163363.67609045</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>589764.806726465</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="73599843"/>
-        <c:axId val="67249631"/>
+        <c:axId val="15946656"/>
+        <c:axId val="23883218"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73599843"/>
+        <c:axId val="15946656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -612,14 +739,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67249631"/>
+        <c:crossAx val="23883218"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67249631"/>
+        <c:axId val="23883218"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -701,7 +828,491 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73599843"/>
+        <c:crossAx val="15946656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>The number of solutions per second</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mean</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$K$29:$P$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>607.227608147105</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>791.460858271031</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>633.278019110278</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>643.434426885036</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>703.263889552882</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>698.667527054722</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$K$29:$P$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>607.227608147105</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>791.460858271031</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>633.278019110278</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>643.434426885036</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>703.263889552882</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>698.667527054722</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$26:$P$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>S4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>S5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>S6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$27:$P$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2151.7337440283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2784.86971271245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2445.86940492989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2561.7512977718</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2674.39563975953</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2954.0561009154</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>median</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>median</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$26:$P$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>S1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>S2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>S4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>S5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>S6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$28:$P$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2002.64934726575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3043.72807993631</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2562.65278647165</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2606.7781028717</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2716.70477187799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2984.67761512501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="85787928"/>
+        <c:axId val="20029217"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="85787928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Strategy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="20029217"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="20029217"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>#sols / second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85787928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -742,16 +1353,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>703800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>128880</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>396360</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>634320</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>34560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -759,12 +1370,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2329200" y="3628080"/>
+        <a:off x="128880" y="5609880"/>
         <a:ext cx="7820640" cy="4987080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>565200</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>148320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>406440</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>13320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6254640" y="9735480"/>
+        <a:ext cx="7156440" cy="4881960"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -778,10 +1419,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O189"/>
+  <dimension ref="A1:Q229"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O50" activeCellId="0" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1270,23 +1911,30 @@
       <c r="F22" s="4" t="n">
         <v>968</v>
       </c>
-      <c r="K22" s="0" t="s">
+      <c r="I22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L22" s="0" t="s">
+      <c r="L22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M22" s="0" t="s">
+      <c r="M22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="0" t="s">
+      <c r="N22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O22" s="0" t="s">
+      <c r="O22" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P22" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
@@ -1307,11 +1955,9 @@
       <c r="F23" s="4" t="n">
         <v>1996</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>11</v>
+      <c r="I23" s="5"/>
+      <c r="J23" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>1465194.2951835</v>
@@ -1325,9 +1971,13 @@
       <c r="N23" s="0" t="n">
         <v>1375021.11192929</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="O23" s="10" t="n">
         <v>1224758.94468873</v>
       </c>
+      <c r="P23" s="0" t="n">
+        <v>670362.930617971</v>
+      </c>
+      <c r="Q23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -1350,8 +2000,9 @@
       <c r="F24" s="4" t="n">
         <v>3992</v>
       </c>
-      <c r="J24" s="0" t="s">
-        <v>12</v>
+      <c r="I24" s="5"/>
+      <c r="J24" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>1535404.17218394</v>
@@ -1365,8 +2016,11 @@
       <c r="N24" s="0" t="n">
         <v>1398318.15505719</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="O24" s="10" t="n">
         <v>1163363.67609045</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>589764.806726465</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1390,23 +2044,27 @@
       <c r="F25" s="4" t="n">
         <v>1051</v>
       </c>
-      <c r="J25" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" s="0" t="n">
+      <c r="I25" s="5"/>
+      <c r="J25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="13" t="n">
         <v>410953.341935887</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="L25" s="13" t="n">
         <v>433789.61483339</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="M25" s="13" t="n">
         <v>331869.088057286</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="N25" s="13" t="n">
         <v>365990.602301472</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="O25" s="13" t="n">
         <v>364133.532746583</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>218775.974429756</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1430,23 +2088,30 @@
       <c r="F26" s="4" t="n">
         <v>3762</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="I26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L26" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N26" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="O26" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P26" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
@@ -1467,11 +2132,9 @@
       <c r="F27" s="4" t="n">
         <v>1055</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>11</v>
+      <c r="I27" s="5"/>
+      <c r="J27" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>2151.7337440283</v>
@@ -1485,8 +2148,11 @@
       <c r="N27" s="0" t="n">
         <v>2561.7512977718</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="O27" s="10" t="n">
         <v>2674.39563975953</v>
+      </c>
+      <c r="P27" s="11" t="n">
+        <v>2954.0561009154</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1510,8 +2176,9 @@
       <c r="F28" s="4" t="n">
         <v>1195</v>
       </c>
-      <c r="J28" s="0" t="s">
-        <v>12</v>
+      <c r="I28" s="5"/>
+      <c r="J28" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>2002.64934726575</v>
@@ -1525,8 +2192,11 @@
       <c r="N28" s="0" t="n">
         <v>2606.7781028717</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="O28" s="10" t="n">
         <v>2716.70477187799</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>2984.67761512501</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1550,23 +2220,27 @@
       <c r="F29" s="4" t="n">
         <v>637</v>
       </c>
-      <c r="J29" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="K29" s="0" t="n">
+      <c r="I29" s="5"/>
+      <c r="J29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="13" t="n">
         <v>607.227608147105</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="L29" s="13" t="n">
         <v>791.460858271031</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="M29" s="13" t="n">
         <v>633.278019110278</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="N29" s="13" t="n">
         <v>643.434426885036</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="O29" s="13" t="n">
         <v>703.263889552882</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>698.667527054722</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1590,6 +2264,28 @@
       <c r="F30" s="4" t="n">
         <v>1091</v>
       </c>
+      <c r="I30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O30" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P30" s="14" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
@@ -1612,10 +2308,32 @@
       <c r="F31" s="4" t="n">
         <v>1370</v>
       </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>0.747001290366667</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>0.7821249359</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>0.733271601466667</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>0.787813840266667</v>
+      </c>
+      <c r="O31" s="10" t="n">
+        <v>0.884393302733333</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>1.62683370256667</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B32" s="0" t="n">
         <f aca="false">AVERAGE(B2:B31)</f>
@@ -1637,10 +2355,32 @@
         <f aca="false">AVERAGE(F2:F31)</f>
         <v>1651.46666666667</v>
       </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>0.6518226245</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>0.774568822</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>0.731181589</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>0.7151564085</v>
+      </c>
+      <c r="O32" s="10" t="n">
+        <v>0.859599609</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>1.696093633</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B33" s="0" t="n">
         <f aca="false">MEDIAN(B2:B31)</f>
@@ -1662,10 +2402,32 @@
         <f aca="false">MEDIAN(F2:F31)</f>
         <v>1368.5</v>
       </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="13" t="n">
+        <v>0.245013510251123</v>
+      </c>
+      <c r="L33" s="13" t="n">
+        <v>0.225335683470263</v>
+      </c>
+      <c r="M33" s="13" t="n">
+        <v>0.165070001457757</v>
+      </c>
+      <c r="N33" s="13" t="n">
+        <v>0.243419956416018</v>
+      </c>
+      <c r="O33" s="13" t="n">
+        <v>0.250494208742443</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>0.447745429038907</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B34" s="0" t="n">
         <f aca="false">STDEV(B2:B31)</f>
@@ -1687,10 +2449,104 @@
         <f aca="false">STDEV(F2:F31)</f>
         <v>883.947834836787</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I34" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="9"/>
+      <c r="K34" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="O34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P34" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I35" s="15"/>
+      <c r="J35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>1651.46666666667</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>2784.86971271245</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>1886.33333333333</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>2111.93333333333</v>
+      </c>
+      <c r="O35" s="10" t="n">
+        <v>2493.56666666667</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>5071.06666666667</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I36" s="15"/>
+      <c r="J36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>1368.5</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>3043.72807993631</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>1858.5</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>1904.5</v>
+      </c>
+      <c r="O36" s="10" t="n">
+        <v>2430.5</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>5269</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I37" s="15"/>
+      <c r="J37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="13" t="n">
+        <v>883.947834836787</v>
+      </c>
+      <c r="L37" s="13" t="n">
+        <v>791.460858271031</v>
+      </c>
+      <c r="M37" s="13" t="n">
+        <v>864.451842791573</v>
+      </c>
+      <c r="N37" s="13" t="n">
+        <v>1060.64293882445</v>
+      </c>
+      <c r="O37" s="13" t="n">
+        <v>1212.78930948265</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <v>2245.59728531544</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>1</v>
@@ -1707,6 +2563,7 @@
       <c r="F38" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="I38" s="17"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
@@ -2370,7 +3227,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B69" s="0" t="n">
         <f aca="false">AVERAGE(B39:B68)</f>
@@ -2395,7 +3252,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B70" s="0" t="n">
         <f aca="false">MEDIAN(B39:B68)</f>
@@ -2420,7 +3277,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B71" s="0" t="n">
         <f aca="false">STDEV(B39:B68)</f>
@@ -2445,7 +3302,7 @@
     </row>
     <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>1</v>
@@ -3125,7 +3982,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B108" s="0" t="n">
         <f aca="false">AVERAGE(B78:B107)</f>
@@ -3150,7 +4007,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B109" s="0" t="n">
         <f aca="false">MEDIAN(B78:B107)</f>
@@ -3175,7 +4032,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B110" s="0" t="n">
         <f aca="false">STDEV(B78:B107)</f>
@@ -3200,7 +4057,7 @@
     </row>
     <row r="117" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>1</v>
@@ -3880,7 +4737,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B148" s="0" t="n">
         <f aca="false">AVERAGE(B118:B147)</f>
@@ -3905,7 +4762,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B149" s="0" t="n">
         <f aca="false">MEDIAN(B118:B147)</f>
@@ -3930,7 +4787,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B150" s="0" t="n">
         <f aca="false">STDEV(B118:B147)</f>
@@ -3955,7 +4812,7 @@
     </row>
     <row r="156" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>1</v>
@@ -4635,7 +5492,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B187" s="0" t="n">
         <f aca="false">AVERAGE(B157:B186)</f>
@@ -4660,7 +5517,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B188" s="0" t="n">
         <f aca="false">MEDIAN(B157:B186)</f>
@@ -4685,7 +5542,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B189" s="0" t="n">
         <f aca="false">STDEV(B157:B186)</f>
@@ -4708,7 +5565,768 @@
         <v>1212.78930948265</v>
       </c>
     </row>
+    <row r="196" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B197" s="4" t="n">
+        <v>1.953940436</v>
+      </c>
+      <c r="C197" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D197" s="0" t="n">
+        <f aca="false">C197/B197</f>
+        <v>511786.327554153</v>
+      </c>
+      <c r="E197" s="3" t="n">
+        <f aca="false">F197/B197</f>
+        <v>3657.73688302953</v>
+      </c>
+      <c r="F197" s="4" t="n">
+        <v>7147</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B198" s="4" t="n">
+        <v>2.040480062</v>
+      </c>
+      <c r="C198" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D198" s="0" t="n">
+        <f aca="false">C198/B198</f>
+        <v>490080.750419016</v>
+      </c>
+      <c r="E198" s="3" t="n">
+        <f aca="false">F198/B198</f>
+        <v>3459.48001720783</v>
+      </c>
+      <c r="F198" s="4" t="n">
+        <v>7059</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B199" s="4" t="n">
+        <v>0.93773451</v>
+      </c>
+      <c r="C199" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D199" s="0" t="n">
+        <f aca="false">C199/B199</f>
+        <v>1066399.9131268</v>
+      </c>
+      <c r="E199" s="3" t="n">
+        <f aca="false">F199/B199</f>
+        <v>2022.96063520153</v>
+      </c>
+      <c r="F199" s="4" t="n">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B200" s="4" t="n">
+        <v>1.25150551</v>
+      </c>
+      <c r="C200" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D200" s="0" t="n">
+        <f aca="false">C200/B200</f>
+        <v>799037.632682896</v>
+      </c>
+      <c r="E200" s="3" t="n">
+        <f aca="false">F200/B200</f>
+        <v>2572.10213960624</v>
+      </c>
+      <c r="F200" s="4" t="n">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B201" s="4" t="n">
+        <v>1.884069059</v>
+      </c>
+      <c r="C201" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D201" s="0" t="n">
+        <f aca="false">C201/B201</f>
+        <v>530766.107124951</v>
+      </c>
+      <c r="E201" s="3" t="n">
+        <f aca="false">F201/B201</f>
+        <v>3487.66408991805</v>
+      </c>
+      <c r="F201" s="4" t="n">
+        <v>6571</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B202" s="4" t="n">
+        <v>1.904806923</v>
+      </c>
+      <c r="C202" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D202" s="0" t="n">
+        <f aca="false">C202/B202</f>
+        <v>524987.592141379</v>
+      </c>
+      <c r="E202" s="3" t="n">
+        <f aca="false">F202/B202</f>
+        <v>3737.38666845448</v>
+      </c>
+      <c r="F202" s="4" t="n">
+        <v>7119</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B203" s="4" t="n">
+        <v>0.983213428</v>
+      </c>
+      <c r="C203" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D203" s="0" t="n">
+        <f aca="false">C203/B203</f>
+        <v>1017073.17203158</v>
+      </c>
+      <c r="E203" s="3" t="n">
+        <f aca="false">F203/B203</f>
+        <v>2356.55853959716</v>
+      </c>
+      <c r="F203" s="4" t="n">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B204" s="4" t="n">
+        <v>1.268810113</v>
+      </c>
+      <c r="C204" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D204" s="0" t="n">
+        <f aca="false">C204/B204</f>
+        <v>788139.998061318</v>
+      </c>
+      <c r="E204" s="3" t="n">
+        <f aca="false">F204/B204</f>
+        <v>2762.43069320492</v>
+      </c>
+      <c r="F204" s="4" t="n">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B205" s="4" t="n">
+        <v>1.98898735</v>
+      </c>
+      <c r="C205" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D205" s="0" t="n">
+        <f aca="false">C205/B205</f>
+        <v>502768.406244514</v>
+      </c>
+      <c r="E205" s="3" t="n">
+        <f aca="false">F205/B205</f>
+        <v>3581.21935767968</v>
+      </c>
+      <c r="F205" s="4" t="n">
+        <v>7123</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B206" s="4" t="n">
+        <v>1.930080319</v>
+      </c>
+      <c r="C206" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D206" s="0" t="n">
+        <f aca="false">C206/B206</f>
+        <v>518113.153196709</v>
+      </c>
+      <c r="E206" s="3" t="n">
+        <f aca="false">F206/B206</f>
+        <v>3668.7592377859</v>
+      </c>
+      <c r="F206" s="4" t="n">
+        <v>7081</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B207" s="4" t="n">
+        <v>1.034891046</v>
+      </c>
+      <c r="C207" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D207" s="0" t="n">
+        <f aca="false">C207/B207</f>
+        <v>966285.295312141</v>
+      </c>
+      <c r="E207" s="3" t="n">
+        <f aca="false">F207/B207</f>
+        <v>1881.35746997274</v>
+      </c>
+      <c r="F207" s="4" t="n">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B208" s="4" t="n">
+        <v>2.173733587</v>
+      </c>
+      <c r="C208" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D208" s="0" t="n">
+        <f aca="false">C208/B208</f>
+        <v>460037.976125728</v>
+      </c>
+      <c r="E208" s="3" t="n">
+        <f aca="false">F208/B208</f>
+        <v>3887.78093623853</v>
+      </c>
+      <c r="F208" s="4" t="n">
+        <v>8451</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B209" s="4" t="n">
+        <v>1.349090718</v>
+      </c>
+      <c r="C209" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D209" s="0" t="n">
+        <f aca="false">C209/B209</f>
+        <v>741239.997175638</v>
+      </c>
+      <c r="E209" s="3" t="n">
+        <f aca="false">F209/B209</f>
+        <v>2930.1217088353</v>
+      </c>
+      <c r="F209" s="4" t="n">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B210" s="4" t="n">
+        <v>1.229199509</v>
+      </c>
+      <c r="C210" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D210" s="0" t="n">
+        <f aca="false">C210/B210</f>
+        <v>813537.584971489</v>
+      </c>
+      <c r="E210" s="3" t="n">
+        <f aca="false">F210/B210</f>
+        <v>2879.1095132141</v>
+      </c>
+      <c r="F210" s="4" t="n">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B211" s="4" t="n">
+        <v>0.767543597</v>
+      </c>
+      <c r="C211" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D211" s="0" t="n">
+        <f aca="false">C211/B211</f>
+        <v>1302857.58868756</v>
+      </c>
+      <c r="E211" s="3" t="n">
+        <f aca="false">F211/B211</f>
+        <v>1095.70323208624</v>
+      </c>
+      <c r="F211" s="4" t="n">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B212" s="4" t="n">
+        <v>1.73246272</v>
+      </c>
+      <c r="C212" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D212" s="0" t="n">
+        <f aca="false">C212/B212</f>
+        <v>577212.997691518</v>
+      </c>
+      <c r="E212" s="3" t="n">
+        <f aca="false">F212/B212</f>
+        <v>3268.75720592706</v>
+      </c>
+      <c r="F212" s="4" t="n">
+        <v>5663</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B213" s="4" t="n">
+        <v>1.844965624</v>
+      </c>
+      <c r="C213" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D213" s="0" t="n">
+        <f aca="false">C213/B213</f>
+        <v>542015.518875597</v>
+      </c>
+      <c r="E213" s="3" t="n">
+        <f aca="false">F213/B213</f>
+        <v>3729.60878538298</v>
+      </c>
+      <c r="F213" s="4" t="n">
+        <v>6881</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B214" s="4" t="n">
+        <v>1.20820093</v>
+      </c>
+      <c r="C214" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D214" s="0" t="n">
+        <f aca="false">C214/B214</f>
+        <v>827676.899735543</v>
+      </c>
+      <c r="E214" s="3" t="n">
+        <f aca="false">F214/B214</f>
+        <v>2247.142782782</v>
+      </c>
+      <c r="F214" s="4" t="n">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B215" s="4" t="n">
+        <v>1.811041754</v>
+      </c>
+      <c r="C215" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D215" s="0" t="n">
+        <f aca="false">C215/B215</f>
+        <v>552168.384738412</v>
+      </c>
+      <c r="E215" s="3" t="n">
+        <f aca="false">F215/B215</f>
+        <v>3609.524731035</v>
+      </c>
+      <c r="F215" s="4" t="n">
+        <v>6537</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B216" s="4" t="n">
+        <v>1.666900818</v>
+      </c>
+      <c r="C216" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D216" s="0" t="n">
+        <f aca="false">C216/B216</f>
+        <v>599915.717360935</v>
+      </c>
+      <c r="E216" s="3" t="n">
+        <f aca="false">F216/B216</f>
+        <v>2751.81339553461</v>
+      </c>
+      <c r="F216" s="4" t="n">
+        <v>4587</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B217" s="4" t="n">
+        <v>1.540364489</v>
+      </c>
+      <c r="C217" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D217" s="0" t="n">
+        <f aca="false">C217/B217</f>
+        <v>649196.996646681</v>
+      </c>
+      <c r="E217" s="3" t="n">
+        <f aca="false">F217/B217</f>
+        <v>2567.57412173762</v>
+      </c>
+      <c r="F217" s="4" t="n">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B218" s="4" t="n">
+        <v>1.725286448</v>
+      </c>
+      <c r="C218" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D218" s="0" t="n">
+        <f aca="false">C218/B218</f>
+        <v>579613.896091996</v>
+      </c>
+      <c r="E218" s="3" t="n">
+        <f aca="false">F218/B218</f>
+        <v>3289.30886032207</v>
+      </c>
+      <c r="F218" s="4" t="n">
+        <v>5675</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B219" s="4" t="n">
+        <v>1.661877183</v>
+      </c>
+      <c r="C219" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D219" s="0" t="n">
+        <f aca="false">C219/B219</f>
+        <v>601729.18325698</v>
+      </c>
+      <c r="E219" s="3" t="n">
+        <f aca="false">F219/B219</f>
+        <v>2933.42976837778</v>
+      </c>
+      <c r="F219" s="4" t="n">
+        <v>4875</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B220" s="4" t="n">
+        <v>1.072886238</v>
+      </c>
+      <c r="C220" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D220" s="0" t="n">
+        <f aca="false">C220/B220</f>
+        <v>932065.268974025</v>
+      </c>
+      <c r="E220" s="3" t="n">
+        <f aca="false">F220/B220</f>
+        <v>1814.73107869243</v>
+      </c>
+      <c r="F220" s="4" t="n">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B221" s="4" t="n">
+        <v>2.309349647</v>
+      </c>
+      <c r="C221" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D221" s="0" t="n">
+        <f aca="false">C221/B221</f>
+        <v>433022.345186692</v>
+      </c>
+      <c r="E221" s="3" t="n">
+        <f aca="false">F221/B221</f>
+        <v>3526.96700154561</v>
+      </c>
+      <c r="F221" s="4" t="n">
+        <v>8145</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B222" s="4" t="n">
+        <v>2.143992032</v>
+      </c>
+      <c r="C222" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D222" s="0" t="n">
+        <f aca="false">C222/B222</f>
+        <v>466419.643858079</v>
+      </c>
+      <c r="E222" s="3" t="n">
+        <f aca="false">F222/B222</f>
+        <v>3035.92546187224</v>
+      </c>
+      <c r="F222" s="4" t="n">
+        <v>6509</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B223" s="4" t="n">
+        <v>2.263955904</v>
+      </c>
+      <c r="C223" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D223" s="0" t="n">
+        <f aca="false">C223/B223</f>
+        <v>441704.716171009</v>
+      </c>
+      <c r="E223" s="3" t="n">
+        <f aca="false">F223/B223</f>
+        <v>3506.69374168164</v>
+      </c>
+      <c r="F223" s="4" t="n">
+        <v>7939</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B224" s="4" t="n">
+        <v>1.507949713</v>
+      </c>
+      <c r="C224" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D224" s="0" t="n">
+        <f aca="false">C224/B224</f>
+        <v>663152.08748609</v>
+      </c>
+      <c r="E224" s="3" t="n">
+        <f aca="false">F224/B224</f>
+        <v>2811.10169885353</v>
+      </c>
+      <c r="F224" s="4" t="n">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B225" s="4" t="n">
+        <v>1.273364486</v>
+      </c>
+      <c r="C225" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D225" s="0" t="n">
+        <f aca="false">C225/B225</f>
+        <v>785321.100905904</v>
+      </c>
+      <c r="E225" s="3" t="n">
+        <f aca="false">F225/B225</f>
+        <v>2158.84770639033</v>
+      </c>
+      <c r="F225" s="4" t="n">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B226" s="4" t="n">
+        <v>2.344326924</v>
+      </c>
+      <c r="C226" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D226" s="0" t="n">
+        <f aca="false">C226/B226</f>
+        <v>426561.666703786</v>
+      </c>
+      <c r="E226" s="3" t="n">
+        <f aca="false">F226/B226</f>
+        <v>3389.88556529499</v>
+      </c>
+      <c r="F226" s="4" t="n">
+        <v>7947</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B227" s="0" t="n">
+        <f aca="false">AVERAGE(B197:B226)</f>
+        <v>1.62683370256667</v>
+      </c>
+      <c r="C227" s="0" t="n">
+        <f aca="false">AVERAGE(C197:C226)</f>
+        <v>1000000</v>
+      </c>
+      <c r="D227" s="0" t="n">
+        <f aca="false">AVERAGE(D197:D226)</f>
+        <v>670362.930617971</v>
+      </c>
+      <c r="E227" s="11" t="n">
+        <f aca="false">AVERAGE(E197:E226)</f>
+        <v>2954.0561009154</v>
+      </c>
+      <c r="F227" s="0" t="n">
+        <f aca="false">AVERAGE(F197:F226)</f>
+        <v>5071.06666666667</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B228" s="0" t="n">
+        <f aca="false">MEDIAN(B197:B226)</f>
+        <v>1.696093633</v>
+      </c>
+      <c r="C228" s="0" t="n">
+        <f aca="false">MEDIAN(C197:C226)</f>
+        <v>1000000</v>
+      </c>
+      <c r="D228" s="0" t="n">
+        <f aca="false">MEDIAN(D197:D226)</f>
+        <v>589764.806726465</v>
+      </c>
+      <c r="E228" s="0" t="n">
+        <f aca="false">MEDIAN(E197:E226)</f>
+        <v>2984.67761512501</v>
+      </c>
+      <c r="F228" s="0" t="n">
+        <f aca="false">MEDIAN(F197:F226)</f>
+        <v>5269</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B229" s="0" t="n">
+        <f aca="false">STDEV(B197:B226)</f>
+        <v>0.447745429038907</v>
+      </c>
+      <c r="C229" s="0" t="n">
+        <f aca="false">STDEV(C197:C226)</f>
+        <v>0</v>
+      </c>
+      <c r="D229" s="0" t="n">
+        <f aca="false">STDEV(D197:D226)</f>
+        <v>218775.974429756</v>
+      </c>
+      <c r="E229" s="0" t="n">
+        <f aca="false">STDEV(E197:E226)</f>
+        <v>698.667527054722</v>
+      </c>
+      <c r="F229" s="0" t="n">
+        <f aca="false">STDEV(F197:F226)</f>
+        <v>2245.59728531544</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="I34:I37"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
